--- a/src/exel/пр-кт. Маршала Блюхера, д. 51, к. 1_250_500.xlsx
+++ b/src/exel/пр-кт. Маршала Блюхера, д. 51, к. 1_250_500.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792C03F6-EBE0-40EE-B654-78A903BDA394}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762D7006-C1BE-46A7-8014-3AE2AFFB4C47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="37">
   <si>
     <t>этаж</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>пр-кт. Маршала Блюхера, д. 51</t>
+  </si>
+  <si>
+    <t>проспект</t>
+  </si>
+  <si>
+    <t>Маршала Блюхера</t>
   </si>
 </sst>
 </file>
@@ -588,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS210"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +649,9 @@
       <c r="P1" s="20"/>
       <c r="Q1" s="20"/>
       <c r="R1" s="20"/>
-      <c r="S1" s="21"/>
+      <c r="S1" s="21" t="s">
+        <v>36</v>
+      </c>
       <c r="T1" s="21"/>
       <c r="U1" s="21"/>
       <c r="V1" s="21"/>
@@ -674,7 +682,9 @@
       <c r="P2" s="20"/>
       <c r="Q2" s="20"/>
       <c r="R2" s="20"/>
-      <c r="S2" s="21"/>
+      <c r="S2" s="21" t="s">
+        <v>35</v>
+      </c>
       <c r="T2" s="21"/>
       <c r="U2" s="21"/>
       <c r="V2" s="21"/>
@@ -702,7 +712,9 @@
       <c r="P3" s="20"/>
       <c r="Q3" s="20"/>
       <c r="R3" s="20"/>
-      <c r="S3" s="21"/>
+      <c r="S3" s="21">
+        <v>51</v>
+      </c>
       <c r="T3" s="21"/>
       <c r="U3" s="21"/>
       <c r="V3" s="21"/>
@@ -717,7 +729,7 @@
     <row r="5" spans="1:44" ht="83.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="18" t="str">
         <f>CONCATENATE($AM$7,$A$1,$AP$7,$S$1,$AQ$7,$S$2,$AR$7,$S$3,$AN$7,D8,J8,P8,V8,AB8,D42,J42,P42,V42,AB42,D76,J76,P76,V76,AB76,D110,J110,P110,V110,AB110,D144,J144,P144,V144,AB144,D178,J178,P178,V178,AB178,$AO$7)</f>
-        <v>{"adress":"пр-кт. Маршала Блюхера, д. 51", "streetName":"", "streetType":"", "buildingNumber":"", "entrance":{"1" : {"long":[{"floor" : "1" , "roomStart" : "1" , "roomEnd" : "4"},{"floor" : "2" , "roomStart" : "5" , "roomEnd" : "10"},{"floor" : "3" , "roomStart" : "11" , "roomEnd" : "16"},{"floor" : "4" , "roomStart" : "17" , "roomEnd" : "22"},{"floor" : "5" , "roomStart" : "23" , "roomEnd" : "28"},{"floor" : "6" , "roomStart" : "29" , "roomEnd" : "34"},{"floor" : "7" , "roomStart" : "35" , "roomEnd" : "40"},{"floor" : "8" , "roomStart" : "41" , "roomEnd" : "46"},{"floor" : "9" , "roomStart" : "47" , "roomEnd" : "52"}], "short": {"start": "1", "end": "52"}}, "2" : {"long":[{"floor" : "1" , "roomStart" : "53" , "roomEnd" : "56"},{"floor" : "2" , "roomStart" : "57" , "roomEnd" : "62"},{"floor" : "3" , "roomStart" : "63" , "roomEnd" : "68"},{"floor" : "4" , "roomStart" : "69" , "roomEnd" : "74"},{"floor" : "5" , "roomStart" : "75" , "roomEnd" : "80"},{"floor" : "6" , "roomStart" : "81" , "roomEnd" : "86"},{"floor" : "7" , "roomStart" : "87" , "roomEnd" : "92"},{"floor" : "8" , "roomStart" : "93" , "roomEnd" : "98"},{"floor" : "9" , "roomStart" : "99" , "roomEnd" : "104"}], "short": {"start": "53", "end": "104"}}, "3" : {"long":[{"floor" : "1" , "roomStart" : "105" , "roomEnd" : "108"},{"floor" : "2" , "roomStart" : "109" , "roomEnd" : "115"},{"floor" : "3" , "roomStart" : "116" , "roomEnd" : "122"},{"floor" : "4" , "roomStart" : "123" , "roomEnd" : "129"},{"floor" : "5" , "roomStart" : "130" , "roomEnd" : "136"},{"floor" : "6" , "roomStart" : "137" , "roomEnd" : "143"},{"floor" : "7" , "roomStart" : "144" , "roomEnd" : "150"},{"floor" : "8" , "roomStart" : "151" , "roomEnd" : "157"},{"floor" : "9" , "roomStart" : "158" , "roomEnd" : "164"}], "short": {"start": "105", "end": "164"}}, "4" : {"long":[{"floor" : "1" , "roomStart" : "165" , "roomEnd" : "168"},{"floor" : "2" , "roomStart" : "169" , "roomEnd" : "174"},{"floor" : "3" , "roomStart" : "175" , "roomEnd" : "180"},{"floor" : "4" , "roomStart" : "181" , "roomEnd" : "186"},{"floor" : "5" , "roomStart" : "187" , "roomEnd" : "192"},{"floor" : "6" , "roomStart" : "193" , "roomEnd" : "198"},{"floor" : "7" , "roomStart" : "199" , "roomEnd" : "204"},{"floor" : "8" , "roomStart" : "205" , "roomEnd" : "209"},{"floor" : "9" , "roomStart" : "210" , "roomEnd" : "216"}], "short": {"start": "165", "end": "216"}}, "5" : {"long":[{"floor" : "1" , "roomStart" : "217" , "roomEnd" : "220"},{"floor" : "2" , "roomStart" : "221" , "roomEnd" : "226"},{"floor" : "3" , "roomStart" : "227" , "roomEnd" : "232"},{"floor" : "4" , "roomStart" : "233" , "roomEnd" : "238"},{"floor" : "5" , "roomStart" : "239" , "roomEnd" : "244"},{"floor" : "6" , "roomStart" : "245" , "roomEnd" : "250"},{"floor" : "7" , "roomStart" : "251" , "roomEnd" : "256"},{"floor" : "8" , "roomStart" : "257" , "roomEnd" : "262"},{"floor" : "9" , "roomStart" : "263" , "roomEnd" : "268"}], "short": {"start": "217", "end": "268"}}, "6" : {"long":[{"floor" : "1" , "roomStart" : "269" , "roomEnd" : "272"},{"floor" : "2" , "roomStart" : "273" , "roomEnd" : "278"},{"floor" : "3" , "roomStart" : "279" , "roomEnd" : "284"},{"floor" : "4" , "roomStart" : "285" , "roomEnd" : "290"},{"floor" : "5" , "roomStart" : "291" , "roomEnd" : "296"},{"floor" : "6" , "roomStart" : "297" , "roomEnd" : "302"},{"floor" : "7" , "roomStart" : "303" , "roomEnd" : "308"},{"floor" : "8" , "roomStart" : "309" , "roomEnd" : "314"},{"floor" : "9" , "roomStart" : "315" , "roomEnd" : "320"}], "short": {"start": "269", "end": "320"}}}}</v>
+        <v>{"adress":"пр-кт. Маршала Блюхера, д. 51", "streetName":"Маршала Блюхера", "streetType":"проспект", "buildingNumber":"51", "entrance":{"1" : {"long":[{"floor" : "1" , "roomStart" : "1" , "roomEnd" : "4"},{"floor" : "2" , "roomStart" : "5" , "roomEnd" : "10"},{"floor" : "3" , "roomStart" : "11" , "roomEnd" : "16"},{"floor" : "4" , "roomStart" : "17" , "roomEnd" : "22"},{"floor" : "5" , "roomStart" : "23" , "roomEnd" : "28"},{"floor" : "6" , "roomStart" : "29" , "roomEnd" : "34"},{"floor" : "7" , "roomStart" : "35" , "roomEnd" : "40"},{"floor" : "8" , "roomStart" : "41" , "roomEnd" : "46"},{"floor" : "9" , "roomStart" : "47" , "roomEnd" : "52"}], "short": {"start": "1", "end": "52"}}, "2" : {"long":[{"floor" : "1" , "roomStart" : "53" , "roomEnd" : "56"},{"floor" : "2" , "roomStart" : "57" , "roomEnd" : "62"},{"floor" : "3" , "roomStart" : "63" , "roomEnd" : "68"},{"floor" : "4" , "roomStart" : "69" , "roomEnd" : "74"},{"floor" : "5" , "roomStart" : "75" , "roomEnd" : "80"},{"floor" : "6" , "roomStart" : "81" , "roomEnd" : "86"},{"floor" : "7" , "roomStart" : "87" , "roomEnd" : "92"},{"floor" : "8" , "roomStart" : "93" , "roomEnd" : "98"},{"floor" : "9" , "roomStart" : "99" , "roomEnd" : "104"}], "short": {"start": "53", "end": "104"}}, "3" : {"long":[{"floor" : "1" , "roomStart" : "105" , "roomEnd" : "108"},{"floor" : "2" , "roomStart" : "109" , "roomEnd" : "115"},{"floor" : "3" , "roomStart" : "116" , "roomEnd" : "122"},{"floor" : "4" , "roomStart" : "123" , "roomEnd" : "129"},{"floor" : "5" , "roomStart" : "130" , "roomEnd" : "136"},{"floor" : "6" , "roomStart" : "137" , "roomEnd" : "143"},{"floor" : "7" , "roomStart" : "144" , "roomEnd" : "150"},{"floor" : "8" , "roomStart" : "151" , "roomEnd" : "157"},{"floor" : "9" , "roomStart" : "158" , "roomEnd" : "164"}], "short": {"start": "105", "end": "164"}}, "4" : {"long":[{"floor" : "1" , "roomStart" : "165" , "roomEnd" : "168"},{"floor" : "2" , "roomStart" : "169" , "roomEnd" : "174"},{"floor" : "3" , "roomStart" : "175" , "roomEnd" : "180"},{"floor" : "4" , "roomStart" : "181" , "roomEnd" : "186"},{"floor" : "5" , "roomStart" : "187" , "roomEnd" : "192"},{"floor" : "6" , "roomStart" : "193" , "roomEnd" : "198"},{"floor" : "7" , "roomStart" : "199" , "roomEnd" : "204"},{"floor" : "8" , "roomStart" : "205" , "roomEnd" : "209"},{"floor" : "9" , "roomStart" : "210" , "roomEnd" : "216"}], "short": {"start": "165", "end": "216"}}, "5" : {"long":[{"floor" : "1" , "roomStart" : "217" , "roomEnd" : "220"},{"floor" : "2" , "roomStart" : "221" , "roomEnd" : "226"},{"floor" : "3" , "roomStart" : "227" , "roomEnd" : "232"},{"floor" : "4" , "roomStart" : "233" , "roomEnd" : "238"},{"floor" : "5" , "roomStart" : "239" , "roomEnd" : "244"},{"floor" : "6" , "roomStart" : "245" , "roomEnd" : "250"},{"floor" : "7" , "roomStart" : "251" , "roomEnd" : "256"},{"floor" : "8" , "roomStart" : "257" , "roomEnd" : "262"},{"floor" : "9" , "roomStart" : "263" , "roomEnd" : "268"}], "short": {"start": "217", "end": "268"}}, "6" : {"long":[{"floor" : "1" , "roomStart" : "269" , "roomEnd" : "272"},{"floor" : "2" , "roomStart" : "273" , "roomEnd" : "278"},{"floor" : "3" , "roomStart" : "279" , "roomEnd" : "284"},{"floor" : "4" , "roomStart" : "285" , "roomEnd" : "290"},{"floor" : "5" , "roomStart" : "291" , "roomEnd" : "296"},{"floor" : "6" , "roomStart" : "297" , "roomEnd" : "302"},{"floor" : "7" , "roomStart" : "303" , "roomEnd" : "308"},{"floor" : "8" , "roomStart" : "309" , "roomEnd" : "314"},{"floor" : "9" , "roomStart" : "315" , "roomEnd" : "320"}], "short": {"start": "269", "end": "320"}}}}</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="23" t="s">
